--- a/data/trans_orig/P1422-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12224</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6051</v>
+        <v>5949</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21775</v>
+        <v>21417</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01170938552631326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005796221457594616</v>
+        <v>0.005698443268607894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02085872850629522</v>
+        <v>0.02051552748003535</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>12711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7226</v>
+        <v>6699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22382</v>
+        <v>21815</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01136307426443029</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006459743527859244</v>
+        <v>0.005988135707174017</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02000794796123602</v>
+        <v>0.01950109190034673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -785,19 +785,19 @@
         <v>24935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16567</v>
+        <v>15289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39123</v>
+        <v>36769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01153024730801644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007660704286782897</v>
+        <v>0.007069561479283104</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01809069102280192</v>
+        <v>0.01700228694461228</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1031711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1022160</v>
+        <v>1022518</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1037884</v>
+        <v>1037986</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9882906144736867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9791412714937049</v>
+        <v>0.9794844725199647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9942037785424054</v>
+        <v>0.9943015567313921</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1018</v>
@@ -835,19 +835,19 @@
         <v>1105942</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1096271</v>
+        <v>1096838</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1111427</v>
+        <v>1111954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9886369257355697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9799920520387639</v>
+        <v>0.9804989080996532</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9935402564721407</v>
+        <v>0.994011864292826</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1985</v>
@@ -856,19 +856,19 @@
         <v>2137653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2123465</v>
+        <v>2125819</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2146021</v>
+        <v>2147299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9884697526919836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9819093089771981</v>
+        <v>0.9829977130553876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9923392957132172</v>
+        <v>0.9929304385207169</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>9283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4041</v>
+        <v>4174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17453</v>
+        <v>18751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009501264560305426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004136004743142752</v>
+        <v>0.004272316084331838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0178622723570163</v>
+        <v>0.01919139555215448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -981,19 +981,19 @@
         <v>5041</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12049</v>
+        <v>11705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004614869074485278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001818008193014193</v>
+        <v>0.001821453385489852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01103095219125669</v>
+        <v>0.01071568383530943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1002,19 +1002,19 @@
         <v>14324</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8014</v>
+        <v>7928</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23688</v>
+        <v>23985</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006921994209503988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003872633490619461</v>
+        <v>0.003831093693155325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01144693537681987</v>
+        <v>0.01159037858073713</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>967790</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>959620</v>
+        <v>958322</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>973032</v>
+        <v>972899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9904987354396946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9821377276429836</v>
+        <v>0.9808086044478456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958639952568572</v>
+        <v>0.9957276839156681</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1014</v>
@@ -1052,19 +1052,19 @@
         <v>1087286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1080278</v>
+        <v>1080622</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1090341</v>
+        <v>1090337</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9953851309255147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9889690478087434</v>
+        <v>0.9892843161646909</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9981819918069857</v>
+        <v>0.9981785466145101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1930</v>
@@ -1073,19 +1073,19 @@
         <v>2055076</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2045712</v>
+        <v>2045415</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2061386</v>
+        <v>2061472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.993078005790496</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9885530646231805</v>
+        <v>0.9884096214192634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9961273665093806</v>
+        <v>0.9961689063068447</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>7874</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2986</v>
+        <v>3771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14027</v>
+        <v>14760</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008896227057302222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003373986404650203</v>
+        <v>0.004260173034945076</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01584786865311796</v>
+        <v>0.01667611397784663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1198,19 +1198,19 @@
         <v>4299</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1062</v>
+        <v>1092</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9722</v>
+        <v>9626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004908784817301367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00121206050167783</v>
+        <v>0.001246813259924844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01110036701361681</v>
+        <v>0.01099117552590867</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1219,19 +1219,19 @@
         <v>12173</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7035</v>
+        <v>6868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21488</v>
+        <v>20435</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006913057372562557</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003994908700063285</v>
+        <v>0.003900475317242664</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01220289090978639</v>
+        <v>0.01160469017719126</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>877241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>871088</v>
+        <v>870355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>882129</v>
+        <v>881344</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9911037729426978</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9841521313468821</v>
+        <v>0.9833238860221535</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9966260135953499</v>
+        <v>0.995739826965055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>817</v>
@@ -1269,19 +1269,19 @@
         <v>871497</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>866074</v>
+        <v>866170</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>874734</v>
+        <v>874704</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9950912151826986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9888996329863832</v>
+        <v>0.9890088244740913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9987879394983222</v>
+        <v>0.9987531867400752</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1639</v>
@@ -1290,19 +1290,19 @@
         <v>1748738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1739423</v>
+        <v>1740476</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1753876</v>
+        <v>1754043</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9930869426274375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9877971090902137</v>
+        <v>0.9883953098228087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9960050912999366</v>
+        <v>0.9960995246827573</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>4241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13221</v>
+        <v>13650</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008430366202102319</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001927889030976129</v>
+        <v>0.001895782832782962</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02628292954299064</v>
+        <v>0.02713564885703119</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1415,19 +1415,19 @@
         <v>3328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8940</v>
+        <v>9291</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007349848654687932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002367534830096391</v>
+        <v>0.002385349973590148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01974624627318237</v>
+        <v>0.02052243582121637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1436,19 +1436,19 @@
         <v>7568</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3167</v>
+        <v>3177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16619</v>
+        <v>17219</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007918533063428235</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003313399050772482</v>
+        <v>0.003323701807303054</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01738817325703751</v>
+        <v>0.0180161052313088</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>498782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489802</v>
+        <v>489373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502053</v>
+        <v>502069</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9915696337978976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9737170704570094</v>
+        <v>0.972864351142969</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9980721109690239</v>
+        <v>0.998104217167217</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>409</v>
@@ -1486,19 +1486,19 @@
         <v>449408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>443796</v>
+        <v>443445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>451664</v>
+        <v>451656</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9926501513453121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9802537537268176</v>
+        <v>0.9794775641787821</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9976324651699036</v>
+        <v>0.9976146500264098</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>867</v>
@@ -1507,19 +1507,19 @@
         <v>948190</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>939139</v>
+        <v>938539</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>952591</v>
+        <v>952581</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9920814669365717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.982611826742962</v>
+        <v>0.9819838947686914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9966866009492276</v>
+        <v>0.996676298192697</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>33622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22317</v>
+        <v>23487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47063</v>
+        <v>48391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009862328736595066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006546318936116763</v>
+        <v>0.006889446168888086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01380482818110382</v>
+        <v>0.01419436921965884</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1632,19 +1632,19 @@
         <v>25379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16729</v>
+        <v>15874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36612</v>
+        <v>37035</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007170174340095399</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004726282706924715</v>
+        <v>0.004484854595726582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01034392906637759</v>
+        <v>0.01046335742391485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -1653,19 +1653,19 @@
         <v>59001</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43862</v>
+        <v>44537</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75600</v>
+        <v>75954</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008490997367168782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006312281391552909</v>
+        <v>0.006409430626496375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01087975702109065</v>
+        <v>0.01093069029310147</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3375523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3362082</v>
+        <v>3360754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3386828</v>
+        <v>3385658</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9901376712634049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9861951718188965</v>
+        <v>0.9858056307803417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9934536810638834</v>
+        <v>0.9931105538311119</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3258</v>
@@ -1703,19 +1703,19 @@
         <v>3514132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3502899</v>
+        <v>3502476</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3522782</v>
+        <v>3523637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9928298256599046</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9896560709336225</v>
+        <v>0.9895366425760852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9952737172930753</v>
+        <v>0.9955151454042734</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6421</v>
@@ -1724,19 +1724,19 @@
         <v>6889656</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6873057</v>
+        <v>6872703</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6904795</v>
+        <v>6904120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9915090026328313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9891202429789094</v>
+        <v>0.9890693097068985</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9936877186084472</v>
+        <v>0.9935905693735037</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>6379</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2617</v>
+        <v>2680</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12866</v>
+        <v>12115</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005655432377881489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002320061285364292</v>
+        <v>0.002375929498406109</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0114062184805662</v>
+        <v>0.01074070021689924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2089,19 +2089,19 @@
         <v>15219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8517</v>
+        <v>9029</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26057</v>
+        <v>26880</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01208314791732004</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00676217144000723</v>
+        <v>0.0071685440290953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02068756675211022</v>
+        <v>0.02134054718201387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2110,19 +2110,19 @@
         <v>21599</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13981</v>
+        <v>13076</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32593</v>
+        <v>33090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009046385951962244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005855667809350941</v>
+        <v>0.005476541724162551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01365132317627036</v>
+        <v>0.01385925628761999</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1121618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1115131</v>
+        <v>1115882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1125380</v>
+        <v>1125317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9943445676221185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9885937815194339</v>
+        <v>0.989259299783101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976799387146357</v>
+        <v>0.9976240705015939</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1175</v>
@@ -2160,19 +2160,19 @@
         <v>1244342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1233504</v>
+        <v>1232681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1251044</v>
+        <v>1250532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.98791685208268</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9793124332478897</v>
+        <v>0.9786594528179859</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9932378285599925</v>
+        <v>0.9928314559709047</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2234</v>
@@ -2181,19 +2181,19 @@
         <v>2365959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2354965</v>
+        <v>2354468</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2373577</v>
+        <v>2374482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9909536140480377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9863486768237296</v>
+        <v>0.98614074371238</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.994144332190649</v>
+        <v>0.9945234582758374</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>5530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1792</v>
+        <v>1841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13467</v>
+        <v>12758</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006084672541111877</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001972169273313561</v>
+        <v>0.0020253169813478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01481790738325717</v>
+        <v>0.01403815485660838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6786</v>
+        <v>4778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001179568446488096</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006742124772741966</v>
+        <v>0.004746865640184333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2327,19 +2327,19 @@
         <v>6717</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2727</v>
+        <v>2805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15671</v>
+        <v>15053</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003507078480643537</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001423877525983862</v>
+        <v>0.001464711444247703</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008182041271423706</v>
+        <v>0.007859590125815096</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>903295</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895358</v>
+        <v>896067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>907033</v>
+        <v>906984</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9939153274588881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9851820926167423</v>
+        <v>0.9859618451433915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980278307266863</v>
+        <v>0.9979746830186522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>950</v>
@@ -2377,7 +2377,7 @@
         <v>1005288</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>999689</v>
+        <v>1001697</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1006475</v>
@@ -2386,7 +2386,7 @@
         <v>0.9988204315535119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9932578752272577</v>
+        <v>0.9952531343598158</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2398,19 +2398,19 @@
         <v>1908583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1899629</v>
+        <v>1900247</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1912573</v>
+        <v>1912495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9964929215193564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9918179587285763</v>
+        <v>0.9921404098741846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985761224740161</v>
+        <v>0.9985352885557522</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>4771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1686</v>
+        <v>1754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11152</v>
+        <v>10758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005792103348929316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002047239213806127</v>
+        <v>0.002129313985302728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01353737761789104</v>
+        <v>0.01305917100638482</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8057</v>
+        <v>8132</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002972393684903</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01044970221421293</v>
+        <v>0.01054607412942257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2544,19 +2544,19 @@
         <v>7063</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2927</v>
+        <v>3097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14787</v>
+        <v>14511</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004428837025100955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0018354265968123</v>
+        <v>0.001942152785025915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009272192321626458</v>
+        <v>0.009099124874090418</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>818988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>812607</v>
+        <v>813001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>822073</v>
+        <v>822005</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9942078966510707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9864626223821098</v>
+        <v>0.9869408289936151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9979527607861939</v>
+        <v>0.9978706860146973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>726</v>
@@ -2594,7 +2594,7 @@
         <v>768767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>763002</v>
+        <v>762927</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>771059</v>
@@ -2603,7 +2603,7 @@
         <v>0.997027606315097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9895502977857866</v>
+        <v>0.9894539258705773</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2615,19 +2615,19 @@
         <v>1587755</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1580031</v>
+        <v>1580307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1591891</v>
+        <v>1591721</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.995571162974899</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9907278076783747</v>
+        <v>0.9909008751259096</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9981645734031878</v>
+        <v>0.9980578472149741</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>4086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10240</v>
+        <v>9731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008064118100683949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00224685976889364</v>
+        <v>0.00222722015887458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02020855611090959</v>
+        <v>0.01920451294358545</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10472</v>
+        <v>10297</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004290897406654757</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02138490392522182</v>
+        <v>0.02102710323798902</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -2761,19 +2761,19 @@
         <v>6187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13823</v>
+        <v>14501</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006209702399107976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002087383010438421</v>
+        <v>0.002089144329246482</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01387333609241614</v>
+        <v>0.01455350522797757</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>502615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496461</v>
+        <v>496970</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505563</v>
+        <v>505572</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991935881899316</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9797914438890903</v>
+        <v>0.9807954870564152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9977531402311064</v>
+        <v>0.9977727798411254</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>454</v>
@@ -2811,7 +2811,7 @@
         <v>487597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479226</v>
+        <v>479401</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>489698</v>
@@ -2820,7 +2820,7 @@
         <v>0.9957091025933452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9786150960747781</v>
+        <v>0.9789728967620109</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2832,19 +2832,19 @@
         <v>990211</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>982575</v>
+        <v>981897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>994318</v>
+        <v>994316</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.993790297600892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.986126663907584</v>
+        <v>0.9854464947720225</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9979126169895617</v>
+        <v>0.9979108556707535</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>20767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12717</v>
+        <v>13256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31318</v>
+        <v>31776</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006167171864690744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003776736475156487</v>
+        <v>0.003936652578825689</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009300710640491415</v>
+        <v>0.009436817265573957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -2957,19 +2957,19 @@
         <v>20800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12625</v>
+        <v>12417</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32113</v>
+        <v>32449</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005897652944801263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003579825315138999</v>
+        <v>0.00352077722901565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009105424758092949</v>
+        <v>0.009200627620089476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -2978,19 +2978,19 @@
         <v>41566</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30005</v>
+        <v>30120</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57706</v>
+        <v>58545</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006029294437969043</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004352345976047795</v>
+        <v>0.004368958009166441</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008370312892518345</v>
+        <v>0.008492050685509747</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3346515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3335964</v>
+        <v>3335506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3354565</v>
+        <v>3354026</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9938328281353093</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9906992893595085</v>
+        <v>0.9905631827344257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9962232635248434</v>
+        <v>0.9960633474211743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3305</v>
@@ -3028,19 +3028,19 @@
         <v>3505992</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3494679</v>
+        <v>3494343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3514167</v>
+        <v>3514375</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9941023470551987</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.990894575241907</v>
+        <v>0.9907993723799106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.996420174684861</v>
+        <v>0.9964792227709843</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6489</v>
@@ -3049,19 +3049,19 @@
         <v>6852509</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6836369</v>
+        <v>6835530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6864070</v>
+        <v>6863955</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9939707055620309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9916296871074817</v>
+        <v>0.9915079493144904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9956476540239522</v>
+        <v>0.9956310419908337</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>12043</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6600</v>
+        <v>6638</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19669</v>
+        <v>19346</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02418998365286146</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01325729686971663</v>
+        <v>0.01333279952709785</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03950527920501544</v>
+        <v>0.03885836991494036</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -3414,19 +3414,19 @@
         <v>11149</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6822</v>
+        <v>6394</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17707</v>
+        <v>17412</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0178787748289378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01094000324876938</v>
+        <v>0.01025309480603453</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02839627352440376</v>
+        <v>0.02792207590474331</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3435,19 +3435,19 @@
         <v>23192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15745</v>
+        <v>15216</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32659</v>
+        <v>33050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02068065141920874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01403969190745908</v>
+        <v>0.01356846188160791</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02912188145150046</v>
+        <v>0.02947045528563451</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>485828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>478202</v>
+        <v>478525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491271</v>
+        <v>491233</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9758100163471385</v>
+        <v>0.9758100163471386</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9604947207949845</v>
+        <v>0.9611416300850597</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867427031302832</v>
+        <v>0.9866672004729021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>843</v>
@@ -3485,19 +3485,19 @@
         <v>612431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>605873</v>
+        <v>606168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>616758</v>
+        <v>617186</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9821212251710623</v>
+        <v>0.982121225171062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9716037264755962</v>
+        <v>0.9720779240952567</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9890599967512308</v>
+        <v>0.9897469051939655</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1283</v>
@@ -3506,19 +3506,19 @@
         <v>1098259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1088792</v>
+        <v>1088401</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1105706</v>
+        <v>1106235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9793193485807912</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9708781185484996</v>
+        <v>0.9705295447143655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9859603080925415</v>
+        <v>0.9864315381183922</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>12518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7833</v>
+        <v>7938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20455</v>
+        <v>19992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01303731840454533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008158095043024468</v>
+        <v>0.008267689403030106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02130437646416872</v>
+        <v>0.02082218675598895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3631,19 +3631,19 @@
         <v>14149</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8883</v>
+        <v>8994</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21937</v>
+        <v>20526</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01269612588257018</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007970276356551946</v>
+        <v>0.008070553606867186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01968406769382742</v>
+        <v>0.0184182942252783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3652,19 +3652,19 @@
         <v>26667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19416</v>
+        <v>19206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36481</v>
+        <v>36656</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01285403203069004</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009358690452020788</v>
+        <v>0.009257765931243993</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01758459840787156</v>
+        <v>0.01766887974351464</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>947619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>939682</v>
+        <v>940145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>952304</v>
+        <v>952199</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9869626815954546</v>
+        <v>0.9869626815954545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9786956235358313</v>
+        <v>0.9791778132440111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9918419049569754</v>
+        <v>0.99173231059697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1581</v>
@@ -3702,19 +3702,19 @@
         <v>1100310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1092522</v>
+        <v>1093933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1105576</v>
+        <v>1105465</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9873038741174299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9803159323061724</v>
+        <v>0.9815817057747217</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9920297236434481</v>
+        <v>0.9919294463931329</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2472</v>
@@ -3723,19 +3723,19 @@
         <v>2047929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2038115</v>
+        <v>2037940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2055180</v>
+        <v>2055390</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9871459679693099</v>
+        <v>0.9871459679693098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.982415401592129</v>
+        <v>0.9823311202564858</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9906413095479794</v>
+        <v>0.9907422340687561</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>8176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4244</v>
+        <v>4025</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16745</v>
+        <v>14886</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007820016785686189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004058853753727882</v>
+        <v>0.003850054553126118</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01601508867018284</v>
+        <v>0.0142377091000126</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3848,19 +3848,19 @@
         <v>6233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3220</v>
+        <v>3059</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11055</v>
+        <v>11429</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.005953422579346918</v>
+        <v>0.005953422579346917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003075535350408744</v>
+        <v>0.002921926433524155</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01055889431978275</v>
+        <v>0.01091625791950767</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3869,19 +3869,19 @@
         <v>14409</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9321</v>
+        <v>8563</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21974</v>
+        <v>21313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00688607842575667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004454420375533149</v>
+        <v>0.004091951295122546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01050090674051736</v>
+        <v>0.01018504043236395</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>1037377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1028808</v>
+        <v>1030667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1041309</v>
+        <v>1041528</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9921799832143138</v>
+        <v>0.9921799832143136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9839849113298184</v>
+        <v>0.9857622908999876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959411462462725</v>
+        <v>0.9961499454468739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1504</v>
@@ -3919,19 +3919,19 @@
         <v>1040758</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1035936</v>
+        <v>1035562</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1043771</v>
+        <v>1043932</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9940465774206532</v>
+        <v>0.9940465774206531</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9894411056802174</v>
+        <v>0.9890837420804919</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9969244646495912</v>
+        <v>0.9970780735664757</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2521</v>
@@ -3940,19 +3940,19 @@
         <v>2078134</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2070569</v>
+        <v>2071230</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2083222</v>
+        <v>2083980</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9931139215742434</v>
+        <v>0.9931139215742433</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9894990932594824</v>
+        <v>0.9898149595676359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955455796244669</v>
+        <v>0.995908048704877</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>12101</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6813</v>
+        <v>6850</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20392</v>
+        <v>19721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01241096830442864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006987904189209621</v>
+        <v>0.0070258233868586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02091492020609471</v>
+        <v>0.02022688879960554</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -4065,19 +4065,19 @@
         <v>6648</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3641</v>
+        <v>3782</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11051</v>
+        <v>11341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007325393278774191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004011423042795581</v>
+        <v>0.004167482057705688</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0121759474070054</v>
+        <v>0.01249580939004566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -4086,19 +4086,19 @@
         <v>18749</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11994</v>
+        <v>12127</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27005</v>
+        <v>28017</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009959253404249382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006370990522259296</v>
+        <v>0.006441452070023296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01434474880187027</v>
+        <v>0.01488215228147582</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>962906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>954615</v>
+        <v>955286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>968194</v>
+        <v>968157</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9875890316955714</v>
+        <v>0.9875890316955713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.979085079793905</v>
+        <v>0.9797731112003945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9930120958107902</v>
+        <v>0.9929741766131414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1306</v>
@@ -4136,19 +4136,19 @@
         <v>900932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>896529</v>
+        <v>896239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>903939</v>
+        <v>903798</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9926746067212258</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9878240525929949</v>
+        <v>0.9875041906099543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9959885769572044</v>
+        <v>0.9958325179422943</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2237</v>
@@ -4157,19 +4157,19 @@
         <v>1863838</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1855582</v>
+        <v>1854570</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1870593</v>
+        <v>1870460</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9900407465957506</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9856552511981294</v>
+        <v>0.985117847718524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9936290094777406</v>
+        <v>0.9935585479299766</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>44838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34243</v>
+        <v>34174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56683</v>
+        <v>58144</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01288982367271065</v>
+        <v>0.01288982367271064</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009843859488844782</v>
+        <v>0.009824292343069351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01629493506503112</v>
+        <v>0.01671499980152456</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -4282,19 +4282,19 @@
         <v>38180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29842</v>
+        <v>28734</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48207</v>
+        <v>49274</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01033949505698718</v>
+        <v>0.01033949505698717</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00808159490447921</v>
+        <v>0.007781486191978926</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01305495598092542</v>
+        <v>0.01334408111389212</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -4303,19 +4303,19 @@
         <v>83018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68288</v>
+        <v>68104</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100794</v>
+        <v>99116</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01157659872235434</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009522600421546555</v>
+        <v>0.009496855176872388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01405544314676363</v>
+        <v>0.01382149834495752</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3433730</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3421885</v>
+        <v>3420424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3444325</v>
+        <v>3444394</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9871101763272894</v>
+        <v>0.9871101763272893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9837050649349689</v>
+        <v>0.9832850001984753</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9901561405111552</v>
+        <v>0.9901757076569307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5234</v>
@@ -4353,19 +4353,19 @@
         <v>3654430</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3644403</v>
+        <v>3643336</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3662768</v>
+        <v>3663876</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9896605049430127</v>
+        <v>0.9896605049430128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9869450440190746</v>
+        <v>0.9866559188861083</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9919184050955208</v>
+        <v>0.9922185138080214</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8513</v>
@@ -4374,19 +4374,19 @@
         <v>7088160</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7070384</v>
+        <v>7072062</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7102890</v>
+        <v>7103074</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9884234012776456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.985944556853236</v>
+        <v>0.9861785016550421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9904773995784534</v>
+        <v>0.9905031448231275</v>
       </c>
     </row>
     <row r="18">
